--- a/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0206</v>
+        <v>-0.293</v>
       </c>
       <c r="G2">
-        <v>-1.742638160548608</v>
+        <v>0.4237879316358563</v>
       </c>
       <c r="H2">
-        <v>-1.742638160548608</v>
+        <v>0.4237879316358563</v>
       </c>
       <c r="I2">
-        <v>-1.960370313304592</v>
+        <v>-0.2040922322557597</v>
       </c>
       <c r="J2">
-        <v>-1.847406666816779</v>
+        <v>-0.2040922322557597</v>
       </c>
       <c r="K2">
-        <v>-7.637</v>
+        <v>0.705</v>
       </c>
       <c r="L2">
-        <v>-3.080677692617992</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="M2">
-        <v>0.4157</v>
+        <v>2.1</v>
       </c>
       <c r="N2">
-        <v>0.02012100677637948</v>
+        <v>0.0248370805785857</v>
       </c>
       <c r="O2">
-        <v>-0.05443236873117717</v>
+        <v>2.978723404255319</v>
       </c>
       <c r="P2">
-        <v>0.4157</v>
+        <v>2.1</v>
       </c>
       <c r="Q2">
-        <v>0.02012100677637948</v>
+        <v>0.0248370805785857</v>
       </c>
       <c r="R2">
-        <v>-0.05443236873117717</v>
+        <v>2.978723404255319</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8.247</v>
+        <v>7.67</v>
       </c>
       <c r="V2">
-        <v>0.3991771539206195</v>
+        <v>0.09071448001797731</v>
       </c>
       <c r="W2">
-        <v>-0.2092864315097334</v>
+        <v>0.003814713896457766</v>
       </c>
       <c r="X2">
-        <v>0.05283442421741552</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y2">
-        <v>-0.2621208557271489</v>
+        <v>-0.03464867035799206</v>
       </c>
       <c r="Z2">
-        <v>0.1336619434163162</v>
+        <v>0.4484128083425841</v>
       </c>
       <c r="AA2">
-        <v>-0.2488532510637362</v>
+        <v>-0.05266622778143517</v>
       </c>
       <c r="AB2">
-        <v>0.05171770028736818</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC2">
-        <v>-0.3005709513511043</v>
+        <v>-0.09112961203588499</v>
       </c>
       <c r="AD2">
-        <v>0.732</v>
+        <v>0.546</v>
       </c>
       <c r="AE2">
-        <v>0.1237900334104148</v>
+        <v>0.06566214938631565</v>
       </c>
       <c r="AF2">
-        <v>0.8557900334104148</v>
+        <v>0.6116621493863157</v>
       </c>
       <c r="AG2">
-        <v>-7.391209966589585</v>
+        <v>-7.058337850613684</v>
       </c>
       <c r="AH2">
-        <v>0.03977497605625991</v>
+        <v>0.007182280754838091</v>
       </c>
       <c r="AI2">
-        <v>0.04349457033019986</v>
+        <v>0.01727778054050829</v>
       </c>
       <c r="AJ2">
-        <v>-0.5570372240406805</v>
+        <v>-0.09108395111019657</v>
       </c>
       <c r="AK2">
-        <v>-0.6467185016946196</v>
+        <v>-0.2545227117145548</v>
       </c>
       <c r="AL2">
-        <v>0.137</v>
+        <v>0.062</v>
       </c>
       <c r="AM2">
-        <v>0.09600000000000002</v>
+        <v>-0.014</v>
       </c>
       <c r="AN2">
-        <v>-0.2512873326467559</v>
+        <v>-1.649546827794562</v>
       </c>
       <c r="AO2">
-        <v>-35.85401459854014</v>
+        <v>-10.25806451612903</v>
       </c>
       <c r="AP2">
-        <v>2.537318903738271</v>
+        <v>21.32428353659724</v>
       </c>
       <c r="AQ2">
-        <v>-51.16666666666666</v>
+        <v>45.42857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -722,25 +722,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0206</v>
+        <v>-0.293</v>
       </c>
       <c r="G3">
-        <v>0.4002157497303129</v>
+        <v>1.098958333333333</v>
       </c>
       <c r="H3">
-        <v>0.4002157497303129</v>
+        <v>1.098958333333333</v>
       </c>
       <c r="I3">
-        <v>0.4382138072619112</v>
+        <v>0.03638935943892546</v>
       </c>
       <c r="J3">
-        <v>0.3372079324562125</v>
+        <v>0.03638935943892546</v>
       </c>
       <c r="K3">
-        <v>2.43</v>
+        <v>0.028</v>
       </c>
       <c r="L3">
-        <v>0.2621359223300971</v>
+        <v>0.01458333333333333</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -764,73 +764,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.88</v>
+        <v>2.33</v>
       </c>
       <c r="V3">
-        <v>1.190082644628099</v>
+        <v>1.226315789473684</v>
       </c>
       <c r="W3">
-        <v>1.320652173913043</v>
+        <v>0.003814713896457766</v>
       </c>
       <c r="X3">
-        <v>0.05884107811335397</v>
+        <v>0.04785187809468971</v>
       </c>
       <c r="Y3">
-        <v>1.26181109579969</v>
+        <v>-0.04403716419823195</v>
       </c>
       <c r="Z3">
-        <v>3.338387090296026</v>
+        <v>0.4429410952527929</v>
       </c>
       <c r="AA3">
-        <v>1.125730608457234</v>
+        <v>0.0161183427254252</v>
       </c>
       <c r="AB3">
-        <v>0.05714928513335867</v>
+        <v>0.04378244189685672</v>
       </c>
       <c r="AC3">
-        <v>1.068581323323876</v>
+        <v>-0.02766409917143152</v>
       </c>
       <c r="AD3">
-        <v>0.526</v>
+        <v>0.546</v>
       </c>
       <c r="AE3">
-        <v>0.1237900334104148</v>
+        <v>0.06566214938631565</v>
       </c>
       <c r="AF3">
-        <v>0.6497900334104149</v>
+        <v>0.6116621493863157</v>
       </c>
       <c r="AG3">
-        <v>-2.230209966589585</v>
+        <v>-1.718337850613684</v>
       </c>
       <c r="AH3">
-        <v>0.2116724682595063</v>
+        <v>0.2435288319074942</v>
       </c>
       <c r="AI3">
-        <v>0.07635793960359356</v>
+        <v>0.07376833961229187</v>
       </c>
       <c r="AJ3">
-        <v>-11.75093299955761</v>
+        <v>-9.458975666744617</v>
       </c>
       <c r="AK3">
-        <v>-0.3961444304946073</v>
+        <v>-0.2882313367574121</v>
       </c>
       <c r="AL3">
-        <v>0.133</v>
+        <v>0.062</v>
       </c>
       <c r="AM3">
-        <v>0.107</v>
+        <v>0.062</v>
       </c>
       <c r="AN3">
-        <v>0.1229833995791443</v>
+        <v>2.256198347107438</v>
       </c>
       <c r="AO3">
-        <v>30.15037593984962</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="AP3">
-        <v>-0.5214425921415911</v>
+        <v>-7.10056963063506</v>
       </c>
       <c r="AQ3">
-        <v>37.47663551401869</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="4">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.021052631578947</v>
+        <v>-0.09852216748768472</v>
       </c>
       <c r="J4">
-        <v>4.021052631578947</v>
+        <v>-0.09852216748768472</v>
       </c>
       <c r="K4">
-        <v>-0.367</v>
+        <v>0.758</v>
       </c>
       <c r="L4">
-        <v>3.863157894736842</v>
+        <v>0.9334975369458127</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,7 +874,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,37 +883,37 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.531</v>
+        <v>3.45</v>
       </c>
       <c r="V4">
-        <v>0.03820143884892086</v>
+        <v>0.04217603911980441</v>
       </c>
       <c r="W4">
-        <v>-0.1462151394422311</v>
+        <v>0.3697560975609757</v>
       </c>
       <c r="X4">
-        <v>0.05045015326463245</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y4">
-        <v>-0.1966652927068635</v>
+        <v>0.3312927133065258</v>
       </c>
       <c r="Z4">
-        <v>-0.05343082114735659</v>
+        <v>0.5345622119815669</v>
       </c>
       <c r="AA4">
-        <v>-0.2148481439820023</v>
+        <v>-0.05266622778143517</v>
       </c>
       <c r="AB4">
-        <v>0.05045015326463245</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC4">
-        <v>-0.2652982972466347</v>
+        <v>-0.09112961203588499</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.531</v>
+        <v>-3.45</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.0397187523374972</v>
+        <v>-0.04403318442884493</v>
       </c>
       <c r="AK4">
-        <v>-0.3495720868992759</v>
+        <v>-0.1678832116788321</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.015</v>
+        <v>-0.076</v>
       </c>
       <c r="AQ4">
-        <v>25.46666666666667</v>
+        <v>1.052631578947368</v>
       </c>
     </row>
     <row r="5">
@@ -957,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PME African Infrastructure Opportunities PLC (AIM:PMEA)</t>
+          <t>Origo Partners PLC (AIM:OPP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,234 +966,109 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0</v>
+        <v>-6.62962962962963</v>
       </c>
       <c r="H5">
-        <v>-0</v>
+        <v>-6.62962962962963</v>
       </c>
       <c r="I5">
-        <v>1.650124069478908</v>
+        <v>-4.259259259259259</v>
       </c>
       <c r="J5">
-        <v>1.650124069478908</v>
+        <v>-4.259259259259259</v>
       </c>
       <c r="K5">
-        <v>-1.34</v>
+        <v>-0.081</v>
       </c>
       <c r="L5">
-        <v>1.662531017369727</v>
+        <v>-0.6</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>2.467685076380729</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-25.92592592592593</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>2.1</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>2.467685076380729</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-25.92592592592593</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>0.046</v>
+        <v>1.89</v>
       </c>
       <c r="V5">
-        <v>0.03407407407407407</v>
+        <v>2.220916568742656</v>
       </c>
       <c r="W5">
-        <v>-0.2723577235772358</v>
+        <v>-0.01519699812382739</v>
       </c>
       <c r="X5">
-        <v>0.05521869517019859</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y5">
-        <v>-0.3275764187474344</v>
+        <v>-0.05366038237827722</v>
       </c>
       <c r="Z5">
-        <v>-0.1714164185452999</v>
+        <v>0.25</v>
       </c>
       <c r="AA5">
-        <v>-0.2828583581454701</v>
+        <v>-1.064814814814815</v>
       </c>
       <c r="AB5">
-        <v>0.0529852473101039</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC5">
-        <v>-0.335843605455574</v>
+        <v>-1.103278199069264</v>
       </c>
       <c r="AD5">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.16</v>
+        <v>-1.89</v>
       </c>
       <c r="AH5">
-        <v>0.1323907455012853</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05441098784997359</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.1059602649006622</v>
+        <v>1.819056785370549</v>
       </c>
       <c r="AK5">
-        <v>0.04278074866310159</v>
+        <v>-1.549180327868853</v>
       </c>
       <c r="AL5">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002</v>
-      </c>
-      <c r="AO5">
-        <v>-665</v>
-      </c>
-      <c r="AQ5">
-        <v>-665</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Isle of Man</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Origo Partners PLC (AIM:OPP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>1.363327674023769</v>
-      </c>
-      <c r="H6">
-        <v>1.363327674023769</v>
-      </c>
-      <c r="I6">
-        <v>1.224108658743633</v>
-      </c>
-      <c r="J6">
-        <v>1.224108658743633</v>
-      </c>
-      <c r="K6">
-        <v>-8.359999999999999</v>
-      </c>
-      <c r="L6">
-        <v>1.419354838709677</v>
-      </c>
-      <c r="M6">
-        <v>0.4157</v>
-      </c>
-      <c r="N6">
-        <v>0.1390301003344482</v>
-      </c>
-      <c r="O6">
-        <v>-0.04972488038277512</v>
-      </c>
-      <c r="P6">
-        <v>0.4157</v>
-      </c>
-      <c r="Q6">
-        <v>0.1390301003344482</v>
-      </c>
-      <c r="R6">
-        <v>-0.04972488038277512</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>4.79</v>
-      </c>
-      <c r="V6">
-        <v>1.602006688963211</v>
-      </c>
-      <c r="W6">
-        <v>-0.6147058823529411</v>
-      </c>
-      <c r="X6">
-        <v>0.05045015326463245</v>
-      </c>
-      <c r="Y6">
-        <v>-0.6651560356175735</v>
-      </c>
-      <c r="Z6">
-        <v>-0.6340150699677073</v>
-      </c>
-      <c r="AA6">
-        <v>-0.776103336921421</v>
-      </c>
-      <c r="AB6">
-        <v>0.05045015326463245</v>
-      </c>
-      <c r="AC6">
-        <v>-0.8265534901860534</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>-4.79</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>2.661111111111111</v>
-      </c>
-      <c r="AK6">
-        <v>-8.87037037037037</v>
-      </c>
-      <c r="AL6">
-        <v>0.002</v>
-      </c>
-      <c r="AM6">
-        <v>0.002</v>
-      </c>
-      <c r="AN6">
-        <v>-0</v>
-      </c>
-      <c r="AO6">
-        <v>-3605</v>
-      </c>
-      <c r="AP6">
-        <v>0.666203059805285</v>
-      </c>
-      <c r="AQ6">
-        <v>-3605</v>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>-0</v>
+      </c>
+      <c r="AP5">
+        <v>3.298429319371728</v>
       </c>
     </row>
   </sheetData>
